--- a/ReferenceAircraftDataSheet.xlsx
+++ b/ReferenceAircraftDataSheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\OneDrive\Documents\GitHub\SEAD55\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C320C7DC-F235-4FD9-BB82-BC535004918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0F200B-2B05-46F8-9C44-746B73ADBD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42570" yWindow="17850" windowWidth="14400" windowHeight="10845" xr2:uid="{45611C99-3462-4BDC-ADEB-89E929466DCD}"/>
+    <workbookView xWindow="38280" yWindow="14745" windowWidth="19440" windowHeight="15000" xr2:uid="{45611C99-3462-4BDC-ADEB-89E929466DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,199 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>https://www.airlines-inform.com/commercial-aircraft/bombardier-crj-1000.html</t>
+  </si>
+  <si>
+    <t>https://customer-janes-com.tudelft.idm.oclc.org/Janes/Display/jawaa647-jawa</t>
+  </si>
+  <si>
+    <t>CRJ-1000</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Wingspan</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Wing Area</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>MTOW</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>MLW</t>
+  </si>
+  <si>
+    <t>MZFW</t>
+  </si>
+  <si>
+    <t>MPL</t>
+  </si>
+  <si>
+    <t>OEW</t>
+  </si>
+  <si>
+    <t>MRW</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Range MPL</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Range (100 pax, M0.78)</t>
+  </si>
+  <si>
+    <t>Vcruise</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Vmax</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>MaxAlt</t>
+  </si>
+  <si>
+    <t>TakeOffLength</t>
+  </si>
+  <si>
+    <t>LandLength</t>
+  </si>
+  <si>
+    <t>CruiseMach</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Engines</t>
+  </si>
+  <si>
+    <t>GE CF34-8C5A1</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Cabin Data</t>
+  </si>
+  <si>
+    <t>Passengers 1-class</t>
+  </si>
+  <si>
+    <t>Passengers 2-class</t>
+  </si>
+  <si>
+    <t>Economy seat pitch</t>
+  </si>
+  <si>
+    <t>CabinLength</t>
+  </si>
+  <si>
+    <t>CabinWidth</t>
+  </si>
+  <si>
+    <t>CabinHeight</t>
+  </si>
+  <si>
+    <t>AisleWidth</t>
+  </si>
+  <si>
+    <t>SeathWidth</t>
+  </si>
+  <si>
+    <t>Cabin Floor Area</t>
+  </si>
+  <si>
+    <t>Cabin Volume</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Cargo compartments</t>
+  </si>
+  <si>
+    <t>Aft Baggage Compartment</t>
+  </si>
+  <si>
+    <t>Forward Under Floor Baggage</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,13 +251,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,14 +577,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85083432-9D99-4A71-8C0F-4DCF5ECB2B85}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>39.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>26.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41640</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>40823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>36970</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>36968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>35150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>35153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11970</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>23188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>41050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3050</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <f>830/3.6</f>
+        <v>230.55555555555554</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <f>870/3.6</f>
+        <v>241.66666666666666</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2030</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1750</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>27260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>23.6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>1.89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0.4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>0.44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>94.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>14.41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>5.26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3E59E77-6BE8-4E66-857A-66131F176E8F}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{98D3DC49-F94F-4769-9DA3-6EBDCCDD22DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4C26F1451D0A44ABB73FA2C8A0D54B" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7fbe3b18c20ba62ea92dd29b03028252">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4579a138-ffa5-4c01-a0fc-376e398031c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57aedc936eb19be8576bf67b7f42a607" ns2:_="">
+    <xsd:import namespace="4579a138-ffa5-4c01-a0fc-376e398031c3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4579a138-ffa5-4c01-a0fc-376e398031c3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BE89D2-2570-4215-A736-FA1548AEA643}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201D9B18-7EB1-4BBD-9985-EC6A6FF4E9B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A738814-61E4-43D2-A70B-0E7D2B998DDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4579a138-ffa5-4c01-a0fc-376e398031c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ReferenceAircraftDataSheet.xlsx
+++ b/ReferenceAircraftDataSheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\OneDrive\Documents\GitHub\SEAD55\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C320C7DC-F235-4FD9-BB82-BC535004918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="824" documentId="8_{C320C7DC-F235-4FD9-BB82-BC535004918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A60C2F4-5E16-4BC7-B507-4F4CFB1B2833}"/>
   <bookViews>
     <workbookView xWindow="42570" yWindow="17850" windowWidth="14400" windowHeight="10845" xr2:uid="{45611C99-3462-4BDC-ADEB-89E929466DCD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reference Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Second Part" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,15 +35,672 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="199">
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>https://www.airlines-inform.com/commercial-aircraft/bombardier-crj-1000.html</t>
+  </si>
+  <si>
+    <t>https://customer-janes-com.tudelft.idm.oclc.org/Janes/Display/jawaa647-jawa</t>
+  </si>
+  <si>
+    <t>AIRPORT PLANNING MANUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference for passenger weight: </t>
+  </si>
+  <si>
+    <t>https://www.easa.europa.eu/sites/default/files/dfu/Weight%20Survey%20R20090095%20Final.pdf</t>
+  </si>
+  <si>
+    <t>CRJ-1000</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>MTOW [kg]</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>OEW [kg]</t>
+  </si>
+  <si>
+    <t>Wingspan</t>
+  </si>
+  <si>
+    <t>MPL [kg]</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>pax_cabinluggage</t>
+  </si>
+  <si>
+    <t>Wing Area</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>front_cargo</t>
+  </si>
+  <si>
+    <t>H_stab_b</t>
+  </si>
+  <si>
+    <t>aft_cargo</t>
+  </si>
+  <si>
+    <t>Fus_diam</t>
+  </si>
+  <si>
+    <t>FW @ MPL [kg]</t>
+  </si>
+  <si>
+    <t>Fus_l</t>
+  </si>
+  <si>
+    <t>H_stab_S</t>
+  </si>
+  <si>
+    <t>V_stab_S</t>
+  </si>
+  <si>
+    <t>Center of Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference for cog: </t>
+  </si>
+  <si>
+    <t>https://brightspace.tudelft.nl/d2l/le/content/419892/viewContent/2368614/View</t>
+  </si>
+  <si>
+    <t>atOEW</t>
+  </si>
+  <si>
+    <t>(%MAC)</t>
+  </si>
+  <si>
+    <t>from datum</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>aft_cargo_cg</t>
+  </si>
+  <si>
+    <t>MTOW</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>front_cargo_cg</t>
+  </si>
+  <si>
+    <t>MLW</t>
+  </si>
+  <si>
+    <t>fuel cg</t>
+  </si>
+  <si>
+    <t>located in wings</t>
+  </si>
+  <si>
+    <t>MZFW</t>
+  </si>
+  <si>
+    <t>pass_part_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from datum </t>
+  </si>
+  <si>
+    <t>MPL</t>
+  </si>
+  <si>
+    <t>pass_part_end</t>
+  </si>
+  <si>
+    <t>OEW</t>
+  </si>
+  <si>
+    <t>MRW</t>
+  </si>
+  <si>
+    <t>MFW</t>
+  </si>
+  <si>
+    <t>Geometry Parameters</t>
+  </si>
+  <si>
+    <t>(ref slides)</t>
+  </si>
+  <si>
+    <t>Parameters to calculate Geometry parameters</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Stick-fixed Stability</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Range MPL</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Vh/V</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>tail aspect ratio</t>
+  </si>
+  <si>
+    <t>Range (100 pax, M0.78)</t>
+  </si>
+  <si>
+    <t>CLah</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Vcruise</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>CLa_a-h</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>Vmax</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>Sweep_0.5c</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>half chord sweep</t>
+  </si>
+  <si>
+    <t>MaxAlt</t>
+  </si>
+  <si>
+    <t>de/da</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>TakeOffLength</t>
+  </si>
+  <si>
+    <t>x_ac/MAC</t>
+  </si>
+  <si>
+    <t>c_root</t>
+  </si>
+  <si>
+    <t>cm on diagram</t>
+  </si>
+  <si>
+    <t>LandLength</t>
+  </si>
+  <si>
+    <t>c_tip</t>
+  </si>
+  <si>
+    <t>CruiseMach</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Sweep_LE</t>
+  </si>
+  <si>
+    <t>Engines</t>
+  </si>
+  <si>
+    <t>taper ratio</t>
+  </si>
+  <si>
+    <t>GE CF34-8C5A1</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Sweep_0.25c</t>
+  </si>
+  <si>
+    <t>Cabin Data</t>
+  </si>
+  <si>
+    <t>b_f</t>
+  </si>
+  <si>
+    <t>Passengers 1-class</t>
+  </si>
+  <si>
+    <t>h_f</t>
+  </si>
+  <si>
+    <t>Passengers 2-class</t>
+  </si>
+  <si>
+    <t>l_fn</t>
+  </si>
+  <si>
+    <t>Economy seat pitch</t>
+  </si>
+  <si>
+    <t>b_n</t>
+  </si>
+  <si>
+    <t>CabinLength</t>
+  </si>
+  <si>
+    <t>l_n</t>
+  </si>
+  <si>
+    <t>CabinWidth</t>
+  </si>
+  <si>
+    <t>k_n</t>
+  </si>
+  <si>
+    <t>CabinHeight</t>
+  </si>
+  <si>
+    <t>CLa_w</t>
+  </si>
+  <si>
+    <t>1/rad</t>
+  </si>
+  <si>
+    <t>AisleWidth</t>
+  </si>
+  <si>
+    <t>Tail sweep LE</t>
+  </si>
+  <si>
+    <t>SeathWidth</t>
+  </si>
+  <si>
+    <t>Tail taper</t>
+  </si>
+  <si>
+    <t>measured on diagram</t>
+  </si>
+  <si>
+    <t>Cabin Floor Area</t>
+  </si>
+  <si>
+    <t>Tail sweep_0.5ch</t>
+  </si>
+  <si>
+    <t>Cabin Volume</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>S_net</t>
+  </si>
+  <si>
+    <t>Sweep_TE</t>
+  </si>
+  <si>
+    <t>Cargo compartments</t>
+  </si>
+  <si>
+    <t>MAC_tail</t>
+  </si>
+  <si>
+    <t>Aft Baggage Compartment</t>
+  </si>
+  <si>
+    <t>MAC LE_tail</t>
+  </si>
+  <si>
+    <t>Forward Under Floor Baggage</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Under−seat storage</t>
+  </si>
+  <si>
+    <t>m_tv</t>
+  </si>
+  <si>
+    <t>Overhead bins</t>
+  </si>
+  <si>
+    <t>K_e_lambda</t>
+  </si>
+  <si>
+    <t>Cargo not in cabin</t>
+  </si>
+  <si>
+    <t>K_e_lambda=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positions </t>
+  </si>
+  <si>
+    <t>https://www.easa.europa.eu/sites/default/files/dfu/TCDS_EASA%20IM%20A%20673_%28CRJ%29_Issue%201_EASA.PDF</t>
+  </si>
+  <si>
+    <t>X_ac/MAC calculation</t>
+  </si>
+  <si>
+    <t>Ref. datum (station 0.0)</t>
+  </si>
+  <si>
+    <t>forward of nose</t>
+  </si>
+  <si>
+    <t>Beta*AR</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>Lambda_beta</t>
+  </si>
+  <si>
+    <t>MAC LE (Xarm)</t>
+  </si>
+  <si>
+    <t>(x_ac/c)w @ BA=6</t>
+  </si>
+  <si>
+    <t>Aft cargo, front liner</t>
+  </si>
+  <si>
+    <t>from reference datum</t>
+  </si>
+  <si>
+    <t>idem at BA=4</t>
+  </si>
+  <si>
+    <t>Aft cargo, back liner</t>
+  </si>
+  <si>
+    <t>avg at BA=5</t>
+  </si>
+  <si>
+    <t>Fwd cargo, back door</t>
+  </si>
+  <si>
+    <t>from nose</t>
+  </si>
+  <si>
+    <t>Fuselage contr. 1</t>
+  </si>
+  <si>
+    <t>Fwd cargo, front door</t>
+  </si>
+  <si>
+    <t>contribution 2</t>
+  </si>
+  <si>
+    <t>(x_ac/c)wf</t>
+  </si>
+  <si>
+    <t>(x_ac/c)n</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>pt refers to list of modifications in assignment</t>
+  </si>
+  <si>
+    <t>pt VI, same as before</t>
+  </si>
+  <si>
+    <t>5% lower, pt. I</t>
+  </si>
+  <si>
+    <t>pt V, cargo weight is equal</t>
+  </si>
+  <si>
+    <t>OEW + batt[kg]</t>
+  </si>
+  <si>
+    <t>Batt [kg]</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>50 cm shifted forwards, pt. I</t>
+  </si>
+  <si>
+    <t>atOEW+batt</t>
+  </si>
+  <si>
+    <t>pt III</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Total weight</t>
+  </si>
+  <si>
+    <t>pt II</t>
+  </si>
+  <si>
+    <t>First weight</t>
+  </si>
+  <si>
+    <t>Second weight</t>
+  </si>
+  <si>
+    <t>First volume</t>
+  </si>
+  <si>
+    <t>Second volume</t>
+  </si>
+  <si>
+    <t>First cg</t>
+  </si>
+  <si>
+    <t>Second cg</t>
+  </si>
+  <si>
+    <t>No. of pax</t>
+  </si>
+  <si>
+    <t>pt IV, last two rows removed</t>
+  </si>
+  <si>
+    <t>don't know if these are the same or should have 2 rows removed as well</t>
+  </si>
+  <si>
+    <t>Aft cargo cg</t>
+  </si>
+  <si>
+    <t>Forward cargo cg</t>
+  </si>
+  <si>
+    <t>New Cargo and Battery CG Calculations</t>
+  </si>
+  <si>
+    <t>Aft floor area</t>
+  </si>
+  <si>
+    <t>Aft cargo volume</t>
+  </si>
+  <si>
+    <t>Aft average height</t>
+  </si>
+  <si>
+    <t>Aft battery floor area</t>
+  </si>
+  <si>
+    <t>Section not in appendage</t>
+  </si>
+  <si>
+    <t>Width battery extends into aft</t>
+  </si>
+  <si>
+    <t>New aft end of aft cargo</t>
+  </si>
+  <si>
+    <t>Forward end of aft cargo</t>
+  </si>
+  <si>
+    <t>Aft battery cg</t>
+  </si>
+  <si>
+    <t>pt II, aft in aft cargo hold</t>
+  </si>
+  <si>
+    <t>Fwd cargo height</t>
+  </si>
+  <si>
+    <t>same as door height</t>
+  </si>
+  <si>
+    <t>Fwd cargo length (orig.)</t>
+  </si>
+  <si>
+    <t>approx 6 times door length</t>
+  </si>
+  <si>
+    <t>Fwd cargo width</t>
+  </si>
+  <si>
+    <t>fwd length between door edges</t>
+  </si>
+  <si>
+    <t>section length</t>
+  </si>
+  <si>
+    <t>Fwd battery length</t>
+  </si>
+  <si>
+    <t>Fwd cargo front (new)</t>
+  </si>
+  <si>
+    <t>Fwd cargo aft</t>
+  </si>
+  <si>
+    <t>Fwd cargo cg</t>
+  </si>
+  <si>
+    <t>Fwd battery cg</t>
+  </si>
+  <si>
+    <t>pt II, forward in forward cargo hold</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,14 +720,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,14 +1050,2066 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85083432-9D99-4A71-8C0F-4DCF5ECB2B85}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="18.75">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <f>E19</f>
+        <v>40823</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>39.1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>39.15</v>
+      </c>
+      <c r="G6">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <f>E23</f>
+        <v>23188</v>
+      </c>
+      <c r="M6" s="6">
+        <f>L6/$L$5</f>
+        <v>0.56801312985326902</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>26.17</v>
+      </c>
+      <c r="G7">
+        <v>26.17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <f>E22</f>
+        <v>10605</v>
+      </c>
+      <c r="M7" s="6">
+        <f>L7/$L$5</f>
+        <v>0.25978002596575461</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>7.13</v>
+      </c>
+      <c r="G8">
+        <v>7.47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <f>100*88</f>
+        <v>8800</v>
+      </c>
+      <c r="M8" s="6">
+        <f>L8/$L$5</f>
+        <v>0.21556475516253093</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G9">
+        <v>77.39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <f>G51/G54 * (E22-L8)</f>
+        <v>482.67920691408233</v>
+      </c>
+      <c r="M9" s="6">
+        <f>L9/$L$5</f>
+        <v>1.1823707393236222E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="G10">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <f>G50/G54 * (E22-L8)</f>
+        <v>1322.3207930859176</v>
+      </c>
+      <c r="M10" s="6">
+        <f>L10/$L$5</f>
+        <v>3.2391563409987445E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="G11">
+        <v>2.69</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <f>G25</f>
+        <v>8822</v>
+      </c>
+      <c r="M11" s="6">
+        <f>L11/$L$5</f>
+        <v>0.21610366705043726</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="G12">
+        <v>36.57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="G13">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="G14">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="K15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <v>0.4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <f>L16*C58+C59</f>
+        <v>24.257999999999999</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18">
+        <f>(C60+C61)/2</f>
+        <v>26.105865999999999</v>
+      </c>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41640</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>40823</v>
+      </c>
+      <c r="G19">
+        <v>41640</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19">
+        <f xml:space="preserve"> (C62+C63) / 2 + C57</f>
+        <v>15.502600000000001</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1">
+        <v>36970</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>36968</v>
+      </c>
+      <c r="G20">
+        <v>36968</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20">
+        <f>21+C57</f>
+        <v>24.657599999999999</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>35153</v>
+      </c>
+      <c r="G21">
+        <v>35153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21">
+        <f>8.027+C57</f>
+        <v>11.6846</v>
+      </c>
+      <c r="M21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11970</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>10605</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22">
+        <f>31.622+C57</f>
+        <v>35.279600000000002</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>23188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24">
+        <v>41050</v>
+      </c>
+      <c r="G24">
+        <v>41867</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>8822</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" t="s">
+        <v>49</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q26">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3050</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27">
+        <f>G10^2/G13</f>
+        <v>4.5840100565681956</v>
+      </c>
+      <c r="S27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>2639</v>
+      </c>
+      <c r="K28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28">
+        <f>(2*PI()*Q27)/(2+SQRT(4+(Q27*Q28/Q29)^2*(1+TAN(RADIANS(Q46))^2/Q28^2)))</f>
+        <v>4.5599665811484327</v>
+      </c>
+      <c r="P28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28">
+        <f>SQRT(1-Q26^2)</f>
+        <v>0.57236352085016751</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1">
+        <f>830/3.6</f>
+        <v>230.55555555555554</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29">
+        <f>Q43*(1+2.15*Q37/G7)*Q47/G9+PI()*Q37^2/2/G9</f>
+        <v>6.8466375609770536</v>
+      </c>
+      <c r="P29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1">
+        <f>870/3.6</f>
+        <v>241.66666666666666</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30">
+        <f>Q50+0.25*Q49-(L32*C58+C59)</f>
+        <v>-24.411032256936323</v>
+      </c>
+      <c r="P30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="9">
+        <f>(TAN(RADIANS(Q34))-(4/Q31)*(50-0)/100*(1-Q35)/(1+Q35))*180/PI()</f>
+        <v>25.225534403070107</v>
+      </c>
+      <c r="R30" t="s">
+        <v>70</v>
+      </c>
+      <c r="S30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12500</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31">
+        <f>(Q53/Q54)*(Q51*0.4876/((Q51^2+Q52^2)*SQRT(Q51^2+0.6319+Q52^2))+(1+(Q51^2/(Q51^2+0.7915+5.0734*Q52^2))^0.3113)*(1-SQRT(Q52^2/(1+Q52^2))))*Q43/(PI()*Q31)</f>
+        <v>0.40008330636073008</v>
+      </c>
+      <c r="P31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31">
+        <f>G7^2/G9</f>
+        <v>8.849578756945343</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>2030</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>1979</v>
+      </c>
+      <c r="K32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32">
+        <f>Q64+Q65</f>
+        <v>0.44397478647595501</v>
+      </c>
+      <c r="P32" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32">
+        <f>5.11+0.5*Q37*(TAN(RADIANS(Q34))-TAN(RADIANS(Q48)))</f>
+        <v>5.8173600051491228</v>
+      </c>
+      <c r="R32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>1747</v>
+      </c>
+      <c r="P33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33">
+        <f>Q32/S32*S33</f>
+        <v>1.4246595930977441</v>
+      </c>
+      <c r="R33" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>1.2</v>
+      </c>
+      <c r="T33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34">
+        <v>0.82</v>
+      </c>
+      <c r="P34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q34">
+        <v>30</v>
+      </c>
+      <c r="R34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="P35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35">
+        <f>Q33/Q32</f>
+        <v>0.24489795918367344</v>
+      </c>
+      <c r="R35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1">
+        <v>27260</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q36">
+        <f>(TAN(RADIANS(Q34))-(4/Q31)*(25-0)/100*(1-Q35)/(1+Q35))*180/PI()</f>
+        <v>29.152634064188813</v>
+      </c>
+      <c r="R36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="P37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q37">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="R37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q38">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="R38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="P39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39">
+        <f>G6-16.97-5.11</f>
+        <v>17.050000000000004</v>
+      </c>
+      <c r="R39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40">
+        <v>0.78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q40">
+        <v>1.55</v>
+      </c>
+      <c r="R40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41">
+        <v>23.6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>23.6</v>
+      </c>
+      <c r="P41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41">
+        <f>(28.6+3.9-(C59+0.25*C58))*-1</f>
+        <v>-8.7639999999999993</v>
+      </c>
+      <c r="R41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q42">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43">
+        <v>1.89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q43">
+        <f>(2*PI()*Q31)/(2+SQRT(4+(Q31*Q28/Q29)^2*(1+TAN(RADIANS(Q30))^2/Q28^2)))</f>
+        <v>6.0508565638230341</v>
+      </c>
+      <c r="R43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44">
+        <v>0.4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q44">
+        <v>34</v>
+      </c>
+      <c r="R44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45">
+        <v>0.44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q45">
+        <f>1.6/3.7</f>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="R45" t="s">
+        <v>82</v>
+      </c>
+      <c r="S45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>50.3</v>
+      </c>
+      <c r="P46" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q46">
+        <f>(TAN(RADIANS(Q44))-(4/Q27)*(50-0)/100*(1-Q45)/(1+Q45))*180/PI()</f>
+        <v>28.741582224134536</v>
+      </c>
+      <c r="R46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47">
+        <v>94.01</v>
+      </c>
+      <c r="P47" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q47">
+        <f>G9-5.11*0.5*Q37-0.5*0.5*Q37*(TAN(RADIANS(Q34))-TAN(RADIANS(Q48)))</f>
+        <v>70.150594997425443</v>
+      </c>
+      <c r="R47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="P48" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="B49" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" t="s">
+        <v>116</v>
+      </c>
+      <c r="R49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50">
+        <v>14.41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>112</v>
+      </c>
+      <c r="P50" t="s">
+        <v>118</v>
+      </c>
+      <c r="R50" t="s">
+        <v>10</v>
+      </c>
+      <c r="S50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51">
+        <v>5.26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>112</v>
+      </c>
+      <c r="P51" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q51">
+        <f>L30/(G7/2)</f>
+        <v>-1.8655737299913124</v>
+      </c>
+      <c r="R51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19">
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52">
+        <v>4.16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>112</v>
+      </c>
+      <c r="P52" t="s">
+        <v>123</v>
+      </c>
+      <c r="R52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53">
+        <v>5.08</v>
+      </c>
+      <c r="H53" t="s">
+        <v>112</v>
+      </c>
+      <c r="P53" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q53">
+        <f>(0.1124+0.1265*RADIANS(Q36)+0.1766*RADIANS(Q36)^2)/(Q51^2) +0.1024/Q51 + 2</f>
+        <v>2.0090361489556861</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19">
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54">
+        <f>G51+G50</f>
+        <v>19.670000000000002</v>
+      </c>
+      <c r="H54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P54" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q54">
+        <f>0.1124/(Q51^2)+0.1024/Q51 + 2</f>
+        <v>1.977406179460125</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="B56" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19">
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57">
+        <v>3.6576</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="P57" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q57">
+        <f>Q28*Q31</f>
+        <v>5.0651760553660852</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58">
+        <v>3.48</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q58">
+        <f>ATAN(TAN(RADIANS(Q34))/Q28)*180/PI()</f>
+        <v>45.248512146330093</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59">
+        <v>22.866</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60">
+        <f>959.5*0.0254</f>
+        <v>24.371299999999998</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="P60" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q60">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19">
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61">
+        <f>1096.08*0.0254</f>
+        <v>27.840431999999996</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+      <c r="P61" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q61">
+        <f>(Q59+Q60)/2</f>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62">
+        <f>12.73+1.07</f>
+        <v>13.8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
+      </c>
+      <c r="P62" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q62">
+        <f>1.8*Q37*Q38*Q39/L29/G9/C58</f>
+        <v>0.12088516247843831</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19">
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63">
+        <f>9.89</f>
+        <v>9.89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+      <c r="P63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q63">
+        <f>0.273/(1+Q35)*(Q37*G9/G7*(G7-Q37))/(C58^2*(G7+2.15*Q37))*TAN(Q36)</f>
+        <v>0.12776544019534353</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19">
+      <c r="P64" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q64">
+        <f>Q61-Q62+Q63</f>
+        <v>0.38688027771690525</v>
+      </c>
+    </row>
+    <row r="65" spans="16:17">
+      <c r="P65" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q65">
+        <f>2*Q42*Q40^2*Q41/G9/C58/L29</f>
+        <v>5.7094508759049749E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D3E59E77-6BE8-4E66-857A-66131F176E8F}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{98D3DC49-F94F-4769-9DA3-6EBDCCDD22DB}"/>
+    <hyperlink ref="R3" r:id="rId3" xr:uid="{908D4332-B275-421D-A29B-7AA8DCF36AD7}"/>
+    <hyperlink ref="Q15" r:id="rId4" xr:uid="{90A9F631-43D9-43F0-A4EC-70769D87048A}"/>
+    <hyperlink ref="C56" r:id="rId5" xr:uid="{BB0CA69B-4893-405A-9F25-3789A2839D3B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A1F04C-07A7-4DEF-8FF6-EBE61286FABF}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>41640</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <f>0.95*'Reference Data'!E23</f>
+        <v>22028.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f>B2</f>
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <f>'Reference Data'!E22</f>
+        <v>10605</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4">
+        <f>B3</f>
+        <v>22028.6</v>
+      </c>
+      <c r="K4" s="6">
+        <f>J4/$J$3</f>
+        <v>0.52902497598463016</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="I5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5">
+        <f>B12</f>
+        <v>3000</v>
+      </c>
+      <c r="K5" s="6">
+        <f>J5/$J$3</f>
+        <v>7.2046109510086456E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <f>B4</f>
+        <v>10605</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ref="K6:K10" si="0">J6/$J$3</f>
+        <v>0.25468299711815562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <f>'Reference Data'!L17 - 0.5</f>
+        <v>23.757999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <f>B21*88</f>
+        <v>8096</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19442843419788663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8">
+        <f>(B7*B3+B13*B17+B14*B18)/(B3+B13+B14)</f>
+        <v>20.910297771349573</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <f>B25/B28*(J6-J7)</f>
+        <v>616.91110605888366</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4815348368368965E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <f>B24/B28*(J6-J7)</f>
+        <v>1892.0888939411161</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>4.5439214551900003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <f>J3-J4-J6</f>
+        <v>9006.4000000000015</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21629202689721425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13">
+        <v>1350</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14">
+        <v>1650</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21">
+        <f>100-8</f>
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24">
+        <f>'Reference Data'!G50-'Second Part'!B16</f>
+        <v>13.268000000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25">
+        <f>'Reference Data'!G51-'Second Part'!B15</f>
+        <v>4.3259999999999996</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28">
+        <f>B24+B25</f>
+        <v>17.594000000000001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>7.5979999999999999</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>14.41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <f>B34/B33</f>
+        <v>1.896551724137931</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36">
+        <f>B16/B35</f>
+        <v>0.60214545454545454</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37">
+        <f>B36-(1.41*0.2)</f>
+        <v>0.32014545454545457</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38">
+        <f>B37/2.15</f>
+        <v>0.14890486257928121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39">
+        <f>'Reference Data'!C61-'Second Part'!B38-0.2</f>
+        <v>27.491527137420714</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40">
+        <f>'Reference Data'!C60</f>
+        <v>24.371299999999998</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41">
+        <f>(B39+B40)/2</f>
+        <v>25.931413568710354</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42">
+        <f>((B39+B38*0.5)*B37+(B39+B38+0.1*0.5)*(B36-B37))/B36</f>
+        <v>27.624263801130862</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44">
+        <f>'Reference Data'!G51/'Second Part'!B45/'Second Part'!B46</f>
+        <v>0.3223157714131647</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45">
+        <f>2*1.07+4*B49</f>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46">
+        <f>B49</f>
+        <v>1.77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48">
+        <f>'Reference Data'!C62-'Reference Data'!C63</f>
+        <v>3.91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49">
+        <f>B48-2*1.07</f>
+        <v>1.77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51">
+        <f>B15/B46/B44</f>
+        <v>1.6371634980988594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52">
+        <f>'Reference Data'!L19-0.5*'Second Part'!B45+B51</f>
+        <v>12.529763498098861</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53">
+        <f>'Reference Data'!L19+0.5*'Second Part'!B45</f>
+        <v>20.1126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54">
+        <f>0.5*(B52+B53)</f>
+        <v>16.32118174904943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55">
+        <f>('Reference Data'!L19-0.5*'Second Part'!B45+'Reference Data'!L19-0.5*'Second Part'!B45+B51)/2</f>
+        <v>11.711181749049432</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D4C26F1451D0A44ABB73FA2C8A0D54B" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7fbe3b18c20ba62ea92dd29b03028252">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4579a138-ffa5-4c01-a0fc-376e398031c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57aedc936eb19be8576bf67b7f42a607" ns2:_="">
+    <xsd:import namespace="4579a138-ffa5-4c01-a0fc-376e398031c3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4579a138-ffa5-4c01-a0fc-376e398031c3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859AA419-5C65-44E8-8BA5-733F0AC56B3C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BE89D2-2570-4215-A736-FA1548AEA643}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201D9B18-7EB1-4BBD-9985-EC6A6FF4E9B6}"/>
 </file>
--- a/ReferenceAircraftDataSheet.xlsx
+++ b/ReferenceAircraftDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\OneDrive\Documents\GitHub\SEAD55\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="824" documentId="8_{C320C7DC-F235-4FD9-BB82-BC535004918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A60C2F4-5E16-4BC7-B507-4F4CFB1B2833}"/>
+  <xr:revisionPtr revIDLastSave="825" documentId="8_{C320C7DC-F235-4FD9-BB82-BC535004918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F221D55C-98E4-4666-A0A8-D9E1C864C1EC}"/>
   <bookViews>
     <workbookView xWindow="42570" yWindow="17850" windowWidth="14400" windowHeight="10845" xr2:uid="{45611C99-3462-4BDC-ADEB-89E929466DCD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="199">
   <si>
     <t>Source:</t>
   </si>
@@ -278,6 +278,9 @@
     <t>LandLength</t>
   </si>
   <si>
+    <t>MAC</t>
+  </si>
+  <si>
     <t>c_tip</t>
   </si>
   <si>
@@ -438,9 +441,6 @@
   </si>
   <si>
     <t>Beta*AR</t>
-  </si>
-  <si>
-    <t>MAC</t>
   </si>
   <si>
     <t>Lambda_beta</t>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85083432-9D99-4A71-8C0F-4DCF5ECB2B85}">
   <dimension ref="B2:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,8 +1709,14 @@
       <c r="E33">
         <v>1747</v>
       </c>
+      <c r="K33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L33">
+        <v>3.48</v>
+      </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q33">
         <f>Q32/S32*S33</f>
@@ -1728,16 +1734,16 @@
     </row>
     <row r="34" spans="2:20">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <v>0.82</v>
       </c>
       <c r="P34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q34">
         <v>30</v>
@@ -1748,32 +1754,32 @@
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1"/>
       <c r="P35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q35">
         <f>Q33/Q32</f>
         <v>0.24489795918367344</v>
       </c>
       <c r="R35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1">
         <v>27260</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q36">
         <f>(TAN(RADIANS(Q34))-(4/Q31)*(25-0)/100*(1-Q35)/(1+Q35))*180/PI()</f>
@@ -1785,11 +1791,11 @@
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1"/>
       <c r="P37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q37">
         <v>2.6949999999999998</v>
@@ -1800,16 +1806,16 @@
     </row>
     <row r="38" spans="2:20">
       <c r="B38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q38">
         <v>2.6949999999999998</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="39" spans="2:20">
       <c r="B39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q39">
         <f>G6-16.97-5.11</f>
@@ -1844,7 +1850,7 @@
     </row>
     <row r="40" spans="2:20">
       <c r="B40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>0.78</v>
@@ -1853,7 +1859,7 @@
         <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q40">
         <v>1.55</v>
@@ -1864,7 +1870,7 @@
     </row>
     <row r="41" spans="2:20">
       <c r="B41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41">
         <v>23.6</v>
@@ -1876,7 +1882,7 @@
         <v>23.6</v>
       </c>
       <c r="P41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q41">
         <f>(28.6+3.9-(C59+0.25*C58))*-1</f>
@@ -1888,7 +1894,7 @@
     </row>
     <row r="42" spans="2:20">
       <c r="B42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>2.5499999999999998</v>
@@ -1897,7 +1903,7 @@
         <v>10</v>
       </c>
       <c r="P42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q42">
         <v>-2.5</v>
@@ -1905,7 +1911,7 @@
     </row>
     <row r="43" spans="2:20">
       <c r="B43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>1.89</v>
@@ -1914,19 +1920,19 @@
         <v>10</v>
       </c>
       <c r="P43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q43">
         <f>(2*PI()*Q31)/(2+SQRT(4+(Q31*Q28/Q29)^2*(1+TAN(RADIANS(Q30))^2/Q28^2)))</f>
         <v>6.0508565638230341</v>
       </c>
       <c r="R43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44">
         <v>0.4</v>
@@ -1935,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="P44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q44">
         <v>34</v>
@@ -1946,7 +1952,7 @@
     </row>
     <row r="45" spans="2:20">
       <c r="B45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C45">
         <v>0.44</v>
@@ -1955,22 +1961,22 @@
         <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q45">
         <f>1.6/3.7</f>
         <v>0.43243243243243246</v>
       </c>
       <c r="R45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -1979,7 +1985,7 @@
         <v>50.3</v>
       </c>
       <c r="P46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q46">
         <f>(TAN(RADIANS(Q44))-(4/Q27)*(50-0)/100*(1-Q45)/(1+Q45))*180/PI()</f>
@@ -1991,16 +1997,16 @@
     </row>
     <row r="47" spans="2:20">
       <c r="B47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E47">
         <v>94.01</v>
       </c>
       <c r="P47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q47">
         <f>G9-5.11*0.5*Q37-0.5*0.5*Q37*(TAN(RADIANS(Q34))-TAN(RADIANS(Q48)))</f>
@@ -2012,7 +2018,7 @@
     </row>
     <row r="48" spans="2:20">
       <c r="P48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -2023,13 +2029,13 @@
     </row>
     <row r="49" spans="2:19">
       <c r="B49" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="P49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R49" t="s">
         <v>10</v>
@@ -2037,16 +2043,16 @@
     </row>
     <row r="50" spans="2:19">
       <c r="B50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G50">
         <v>14.41</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R50" t="s">
         <v>10</v>
@@ -2057,54 +2063,54 @@
     </row>
     <row r="51" spans="2:19">
       <c r="B51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G51">
         <v>5.26</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q51">
         <f>L30/(G7/2)</f>
         <v>-1.8655737299913124</v>
       </c>
       <c r="R51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:19">
       <c r="B52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G52">
         <v>4.16</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:19">
       <c r="B53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G53">
         <v>5.08</v>
       </c>
       <c r="H53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q53">
         <f>(0.1124+0.1265*RADIANS(Q36)+0.1766*RADIANS(Q36)^2)/(Q51^2) +0.1024/Q51 + 2</f>
@@ -2113,17 +2119,17 @@
     </row>
     <row r="54" spans="2:19">
       <c r="B54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G54">
         <f>G51+G50</f>
         <v>19.670000000000002</v>
       </c>
       <c r="H54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q54">
         <f>0.1124/(Q51^2)+0.1024/Q51 + 2</f>
@@ -2132,18 +2138,18 @@
     </row>
     <row r="56" spans="2:19">
       <c r="B56" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="2:19">
       <c r="B57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C57">
         <v>3.6576</v>
@@ -2152,10 +2158,10 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q57">
         <f>Q28*Q31</f>
@@ -2164,7 +2170,7 @@
     </row>
     <row r="58" spans="2:19">
       <c r="B58" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <v>3.48</v>
@@ -2568,7 +2574,7 @@
         <v>0.93400000000000005</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>163</v>
@@ -2582,7 +2588,7 @@
         <v>1.1419999999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
         <v>163</v>
@@ -2618,36 +2624,36 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24">
         <f>'Reference Data'!G50-'Second Part'!B16</f>
         <v>13.268000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25">
         <f>'Reference Data'!G51-'Second Part'!B15</f>
         <v>4.3259999999999996</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
         <v>172</v>
@@ -2655,7 +2661,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
         <v>172</v>
@@ -2663,14 +2669,14 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B28">
         <f>B24+B25</f>
         <v>17.594000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2719,7 +2725,7 @@
         <v>14.41</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:5">

--- a/ReferenceAircraftDataSheet.xlsx
+++ b/ReferenceAircraftDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\OneDrive\Documents\GitHub\SEAD55\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="825" documentId="8_{C320C7DC-F235-4FD9-BB82-BC535004918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F221D55C-98E4-4666-A0A8-D9E1C864C1EC}"/>
+  <xr:revisionPtr revIDLastSave="981" documentId="8_{C320C7DC-F235-4FD9-BB82-BC535004918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678066B6-AEE1-4812-8758-1C0EC1E7FCB4}"/>
   <bookViews>
     <workbookView xWindow="42570" yWindow="17850" windowWidth="14400" windowHeight="10845" xr2:uid="{45611C99-3462-4BDC-ADEB-89E929466DCD}"/>
   </bookViews>
@@ -36,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="255">
   <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>= aangepast</t>
+  </si>
+  <si>
     <t>https://www.airlines-inform.com/commercial-aircraft/bombardier-crj-1000.html</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>CRJ-1000</t>
   </si>
   <si>
+    <t>AFTER CHANGES</t>
+  </si>
+  <si>
     <t>Dimensions</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>MPL [kg]</t>
   </si>
   <si>
+    <t>OEW+BAT [kg]</t>
+  </si>
+  <si>
     <t>Height</t>
   </si>
   <si>
@@ -191,6 +200,12 @@
     <t>Parameters to calculate Geometry parameters</t>
   </si>
   <si>
+    <t>Cmac Calculation</t>
+  </si>
+  <si>
+    <t>Waardes van mn huisgenoot die het weer van iemand anders heeft gekregen</t>
+  </si>
+  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -200,6 +215,15 @@
     <t>M</t>
   </si>
   <si>
+    <t>Cm0</t>
+  </si>
+  <si>
+    <t>CL0</t>
+  </si>
+  <si>
+    <t>0,27</t>
+  </si>
+  <si>
     <t>Range MPL</t>
   </si>
   <si>
@@ -215,6 +239,15 @@
     <t>tail aspect ratio</t>
   </si>
   <si>
+    <t>Cmac_w</t>
+  </si>
+  <si>
+    <t>clalpha airfoil</t>
+  </si>
+  <si>
+    <t>0,105</t>
+  </si>
+  <si>
     <t>Range (100 pax, M0.78)</t>
   </si>
   <si>
@@ -224,6 +257,15 @@
     <t>Beta</t>
   </si>
   <si>
+    <t>deltafus_Cmac</t>
+  </si>
+  <si>
+    <t>CL alpha wing</t>
+  </si>
+  <si>
+    <t>0,1491963473</t>
+  </si>
+  <si>
     <t>Vcruise</t>
   </si>
   <si>
@@ -236,6 +278,9 @@
     <t>eta</t>
   </si>
   <si>
+    <t>deltanac_Cmac</t>
+  </si>
+  <si>
     <t>Vmax</t>
   </si>
   <si>
@@ -254,6 +299,15 @@
     <t>half chord sweep</t>
   </si>
   <si>
+    <t>Cl0</t>
+  </si>
+  <si>
+    <t>Cmac_flaps</t>
+  </si>
+  <si>
+    <t>-0,1817917547</t>
+  </si>
+  <si>
     <t>MaxAlt</t>
   </si>
   <si>
@@ -263,6 +317,15 @@
     <t>AR</t>
   </si>
   <si>
+    <t>landing V</t>
+  </si>
+  <si>
+    <t>deltaCm0.25flaps</t>
+  </si>
+  <si>
+    <t>-0,03310224365</t>
+  </si>
+  <si>
     <t>TakeOffLength</t>
   </si>
   <si>
@@ -275,6 +338,15 @@
     <t>cm on diagram</t>
   </si>
   <si>
+    <t>landing M</t>
+  </si>
+  <si>
+    <t>mu1</t>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
     <t>LandLength</t>
   </si>
   <si>
@@ -284,6 +356,15 @@
     <t>c_tip</t>
   </si>
   <si>
+    <t>landing beta</t>
+  </si>
+  <si>
+    <t>mu2</t>
+  </si>
+  <si>
+    <t>0,65</t>
+  </si>
+  <si>
     <t>CruiseMach</t>
   </si>
   <si>
@@ -293,12 +374,36 @@
     <t>Sweep_LE</t>
   </si>
   <si>
+    <t>CLa_a-h (land V)</t>
+  </si>
+  <si>
+    <t>1/rad</t>
+  </si>
+  <si>
+    <t>contributions of fuselage may be ignored</t>
+  </si>
+  <si>
+    <t>mu3</t>
+  </si>
+  <si>
+    <t>0,055</t>
+  </si>
+  <si>
     <t>Engines</t>
   </si>
   <si>
+    <t>Cmac</t>
+  </si>
+  <si>
     <t>taper ratio</t>
   </si>
   <si>
+    <t>c_root tail</t>
+  </si>
+  <si>
+    <t>deltaCLmax (landing)</t>
+  </si>
+  <si>
     <t>GE CF34-8C5A1</t>
   </si>
   <si>
@@ -308,49 +413,103 @@
     <t>Sweep_0.25c</t>
   </si>
   <si>
+    <t>c'/c ratio of flaps/clean chord</t>
+  </si>
+  <si>
+    <t>1,34</t>
+  </si>
+  <si>
     <t>Cabin Data</t>
   </si>
   <si>
     <t>b_f</t>
   </si>
   <si>
+    <t>deltaClmax</t>
+  </si>
+  <si>
+    <t>lecture 3 AE2111</t>
+  </si>
+  <si>
+    <t>Swf/S ratio flaps/clean wing area</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
     <t>Passengers 1-class</t>
   </si>
   <si>
     <t>h_f</t>
   </si>
   <si>
+    <t>Swf/S</t>
+  </si>
+  <si>
+    <t>CL_landing</t>
+  </si>
+  <si>
     <t>Passengers 2-class</t>
   </si>
   <si>
     <t>l_fn</t>
   </si>
   <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>wingsweep1/4</t>
+  </si>
+  <si>
+    <t>0,4537856055</t>
+  </si>
+  <si>
     <t>Economy seat pitch</t>
   </si>
   <si>
     <t>b_n</t>
   </si>
   <si>
+    <t>c'/c</t>
+  </si>
+  <si>
+    <t>http://icas.org/ICAS_ARCHIVE/ICAS2002/PAPERS/3101.PDF</t>
+  </si>
+  <si>
+    <t>lec 8 dit vak</t>
+  </si>
+  <si>
+    <t>cflap/c</t>
+  </si>
+  <si>
     <t>CabinLength</t>
   </si>
   <si>
     <t>l_n</t>
   </si>
   <si>
+    <t>k1</t>
+  </si>
+  <si>
     <t>CabinWidth</t>
   </si>
   <si>
     <t>k_n</t>
   </si>
   <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>0,92</t>
+  </si>
+  <si>
     <t>CabinHeight</t>
   </si>
   <si>
     <t>CLa_w</t>
   </si>
   <si>
-    <t>1/rad</t>
+    <t>k3</t>
   </si>
   <si>
     <t>AisleWidth</t>
@@ -359,6 +518,12 @@
     <t>Tail sweep LE</t>
   </si>
   <si>
+    <t>flap/wing span</t>
+  </si>
+  <si>
+    <t>dclmax base</t>
+  </si>
+  <si>
     <t>SeathWidth</t>
   </si>
   <si>
@@ -368,6 +533,9 @@
     <t>measured on diagram</t>
   </si>
   <si>
+    <t>deltaf_Cmac</t>
+  </si>
+  <si>
     <t>Cabin Floor Area</t>
   </si>
   <si>
@@ -383,6 +551,9 @@
     <t>S_net</t>
   </si>
   <si>
+    <t>NEEDS UPDATING</t>
+  </si>
+  <si>
     <t>Sweep_TE</t>
   </si>
   <si>
@@ -404,9 +575,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Under−seat storage</t>
   </si>
   <si>
@@ -449,13 +617,13 @@
     <t>MAC LE (Xarm)</t>
   </si>
   <si>
+    <t>from reference datum</t>
+  </si>
+  <si>
     <t>(x_ac/c)w @ BA=6</t>
   </si>
   <si>
     <t>Aft cargo, front liner</t>
-  </si>
-  <si>
-    <t>from reference datum</t>
   </si>
   <si>
     <t>idem at BA=4</t>
@@ -639,7 +807,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,16 +870,58 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -719,12 +929,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -735,6 +1035,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1050,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85083432-9D99-4A71-8C0F-4DCF5ECB2B85}">
-  <dimension ref="B2:T65"/>
+  <dimension ref="B2:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:L33"/>
+    <sheetView tabSelected="1" topLeftCell="P23" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1062,58 +1398,75 @@
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:18">
+      <c r="K2" s="10"/>
+      <c r="L2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="18.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="18.75">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="R4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <f>E19</f>
-        <v>40823</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10">
+        <f>G19</f>
+        <v>41640</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>39.1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>39.15</v>
@@ -1122,7 +1475,7 @@
         <v>39.130000000000003</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <f>E23</f>
@@ -1130,18 +1483,29 @@
       </c>
       <c r="M6" s="6">
         <f>L6/$L$5</f>
-        <v>0.56801312985326902</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18">
+        <v>0.55686839577329494</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6">
+        <f>23188*0.95</f>
+        <v>22028.6</v>
+      </c>
+      <c r="T6" s="6">
+        <f>S6/$S$5</f>
+        <v>0.52902497598463016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>26.2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>26.17</v>
@@ -1150,7 +1514,7 @@
         <v>26.17</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <f>E22</f>
@@ -1158,18 +1522,29 @@
       </c>
       <c r="M7" s="6">
         <f>L7/$L$5</f>
-        <v>0.25978002596575461</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18">
+        <v>0.25468299711815562</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <f>S6+1350+1650</f>
+        <v>25028.6</v>
+      </c>
+      <c r="T7" s="6">
+        <f>S7/$S$5</f>
+        <v>0.60107108549471655</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>7.13</v>
@@ -1178,7 +1553,7 @@
         <v>7.47</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <f>100*88</f>
@@ -1186,18 +1561,29 @@
       </c>
       <c r="M8" s="6">
         <f>L8/$L$5</f>
-        <v>0.21556475516253093</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
+        <v>0.21133525456292027</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <f>S9+S10+S11</f>
+        <v>10253</v>
+      </c>
+      <c r="T8" s="6">
+        <f>S8/$S$5</f>
+        <v>0.24622958693563882</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>77.400000000000006</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>77.400000000000006</v>
@@ -1206,7 +1592,7 @@
         <v>77.39</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <f>G51/G54 * (E22-L8)</f>
@@ -1214,19 +1600,29 @@
       </c>
       <c r="M9" s="6">
         <f>L9/$L$5</f>
-        <v>1.1823707393236222E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
+        <v>1.1591719666524551E-2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9">
+        <v>8448</v>
+      </c>
+      <c r="T9" s="6">
+        <f>S9/$S$5</f>
+        <v>0.20288184438040346</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="G10">
         <v>8.5399999999999991</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L10">
         <f>G50/G54 * (E22-L8)</f>
@@ -1234,127 +1630,160 @@
       </c>
       <c r="M10" s="6">
         <f>L10/$L$5</f>
-        <v>3.2391563409987445E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18">
+        <v>3.1756022888710794E-2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10">
+        <f>L9</f>
+        <v>482.67920691408233</v>
+      </c>
+      <c r="T10" s="6">
+        <f>S10/$S$5</f>
+        <v>1.1591719666524551E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1"/>
       <c r="G11">
         <v>2.69</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11">
-        <f>G25</f>
-        <v>8822</v>
+        <v>25</v>
+      </c>
+      <c r="L11" s="10">
+        <f>L5-L6-L7</f>
+        <v>7847</v>
       </c>
       <c r="M11" s="6">
         <f>L11/$L$5</f>
-        <v>0.21610366705043726</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
+        <v>0.18844860710854947</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11">
+        <f>L10</f>
+        <v>1322.3207930859176</v>
+      </c>
+      <c r="T11" s="6">
+        <f>S11/$S$5</f>
+        <v>3.1756022888710794E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1"/>
       <c r="G12">
         <v>36.57</v>
       </c>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <f>S5-S7-S8</f>
+        <v>6358.4000000000015</v>
+      </c>
+      <c r="T12" s="6">
+        <f>S12/$S$5</f>
+        <v>0.15269932756964461</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="G13">
         <v>15.91</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:20">
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1"/>
       <c r="G14">
         <v>11.32</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:20">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="K15" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="K16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L16">
         <v>0.4</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L17">
         <f>L16*C58+C59</f>
         <v>24.257999999999999</v>
       </c>
       <c r="M17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33">
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1"/>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L18">
         <f>(C60+C61)/2</f>
         <v>26.105865999999999</v>
       </c>
       <c r="M18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>41640</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>40823</v>
@@ -1363,28 +1792,28 @@
         <v>41640</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L19">
         <f xml:space="preserve"> (C62+C63) / 2 + C57</f>
         <v>15.502600000000001</v>
       </c>
       <c r="M19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>36970</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>36968</v>
@@ -1393,31 +1822,31 @@
         <v>36968</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L20">
         <f>21+C57</f>
         <v>24.657599999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33">
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>35150</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>35153</v>
@@ -1426,63 +1855,63 @@
         <v>35153</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L21">
         <f>8.027+C57</f>
         <v>11.6846</v>
       </c>
       <c r="M21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
         <v>11970</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>10605</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L22">
         <f>31.622+C57</f>
         <v>35.279600000000002</v>
       </c>
       <c r="M22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33">
       <c r="B23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>23188</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:33">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>41050</v>
@@ -1491,677 +1920,926 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:33">
       <c r="B25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>8822</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20">
+        <v>53</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33">
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q26">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="12">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="W26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG26" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33">
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1">
         <v>3050</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="Q27">
         <f>G10^2/G13</f>
         <v>4.5840100565681956</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
+        <v>66</v>
+      </c>
+      <c r="W27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X27">
+        <f>X26*(Q31*COS(RADIANS(Q34))^2/(Q31+2*COS(RADIANS(Q34))))</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG27" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>2639</v>
       </c>
       <c r="K28" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L28">
         <f>(2*PI()*Q27)/(2+SQRT(4+(Q27*Q28/Q29)^2*(1+TAN(RADIANS(Q46))^2/Q28^2)))</f>
         <v>4.5599665811484327</v>
       </c>
       <c r="P28" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q28">
         <f>SQRT(1-Q26^2)</f>
         <v>0.57236352085016751</v>
       </c>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="W28" t="s">
+        <v>73</v>
+      </c>
+      <c r="X28">
+        <f>-1.8*(1-2.5*Q37/G12)*PI()*Q37*Q38*G12/(4*G9*L33)*X30/X31</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG28" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33">
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1">
         <f>830/3.6</f>
         <v>230.55555555555554</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="L29">
         <f>Q43*(1+2.15*Q37/G7)*Q47/G9+PI()*Q37^2/2/G9</f>
         <v>6.8466375609770536</v>
       </c>
       <c r="P29" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="12">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="W29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="16"/>
+    </row>
+    <row r="30" spans="2:33">
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1">
         <f>870/3.6</f>
         <v>241.66666666666666</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="L30">
         <f>Q50+0.25*Q49-(L32*C58+C59)</f>
-        <v>-24.411032256936323</v>
+        <v>16.076621933676613</v>
       </c>
       <c r="P30" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="9">
         <f>(TAN(RADIANS(Q34))-(4/Q31)*(50-0)/100*(1-Q35)/(1+Q35))*180/PI()</f>
         <v>25.225534403070107</v>
       </c>
       <c r="R30" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20">
+        <v>86</v>
+      </c>
+      <c r="W30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG30" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33">
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1">
         <v>12500</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K31" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="L31">
         <f>(Q53/Q54)*(Q51*0.4876/((Q51^2+Q52^2)*SQRT(Q51^2+0.6319+Q52^2))+(1+(Q51^2/(Q51^2+0.7915+5.0734*Q52^2))^0.3113)*(1-SQRT(Q52^2/(1+Q52^2))))*Q43/(PI()*Q31)</f>
-        <v>0.40008330636073008</v>
+        <v>0.37020721081315311</v>
       </c>
       <c r="P31" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="Q31">
         <f>G7^2/G9</f>
         <v>8.849578756945343</v>
       </c>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="W31" t="s">
+        <v>93</v>
+      </c>
+      <c r="X31">
+        <f>120*0.514444444</f>
+        <v>61.733333279999997</v>
+      </c>
+      <c r="AF31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG31" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>2030</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>1979</v>
       </c>
       <c r="K32" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="L32">
         <f>Q64+Q65</f>
         <v>0.44397478647595501</v>
       </c>
       <c r="P32" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="Q32">
         <f>5.11+0.5*Q37*(TAN(RADIANS(Q34))-TAN(RADIANS(Q48)))</f>
         <v>5.8173600051491228</v>
       </c>
       <c r="R32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S32">
         <v>4.9000000000000004</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20">
+        <v>99</v>
+      </c>
+      <c r="W32" t="s">
+        <v>100</v>
+      </c>
+      <c r="X32">
+        <f>X31/344</f>
+        <v>0.17945736418604649</v>
+      </c>
+      <c r="AF32" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG32" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33">
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1">
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>1747</v>
       </c>
       <c r="K33" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="L33">
         <v>3.48</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="Q33">
         <f>Q32/S32*S33</f>
         <v>1.4246595930977441</v>
       </c>
       <c r="R33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S33">
         <v>1.2</v>
       </c>
       <c r="T33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20">
+        <v>99</v>
+      </c>
+      <c r="W33" t="s">
+        <v>106</v>
+      </c>
+      <c r="X33">
+        <f>SQRT(1-X32^2)</f>
+        <v>0.98376575181259318</v>
+      </c>
+      <c r="AF33" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG33" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E34">
         <v>0.82</v>
       </c>
       <c r="P34" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="Q34">
         <v>30</v>
       </c>
       <c r="R34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20">
+        <v>85</v>
+      </c>
+      <c r="W34" t="s">
+        <v>112</v>
+      </c>
+      <c r="X34">
+        <f>(2*PI()*Q31)/(2+SQRT(4+(Q31*X33/Q29)^2*(1+TAN(RADIANS(Q30))^2/X33^2)))</f>
+        <v>4.5002370562583369</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF34" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG34" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33">
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1"/>
+      <c r="K35" t="s">
+        <v>118</v>
+      </c>
+      <c r="L35">
+        <f>SUM(X27:X29)</f>
+        <v>0</v>
+      </c>
       <c r="P35" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="Q35">
         <f>Q33/Q32</f>
         <v>0.24489795918367344</v>
       </c>
       <c r="R35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20">
+        <v>110</v>
+      </c>
+      <c r="W35" t="s">
+        <v>120</v>
+      </c>
+      <c r="X35">
+        <f>5.11/5.5 *2.8</f>
+        <v>2.6014545454545455</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG35" s="19">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33">
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1">
         <v>27260</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="P36" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="Q36">
         <f>(TAN(RADIANS(Q34))-(4/Q31)*(25-0)/100*(1-Q35)/(1+Q35))*180/PI()</f>
         <v>29.152634064188813</v>
       </c>
       <c r="R36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20">
+        <v>85</v>
+      </c>
+      <c r="AF36" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG36" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33">
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1"/>
       <c r="P37" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q37">
+        <v>128</v>
+      </c>
+      <c r="Q37" s="12">
         <v>2.6949999999999998</v>
       </c>
       <c r="R37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20">
+        <v>12</v>
+      </c>
+      <c r="W37" t="s">
+        <v>129</v>
+      </c>
+      <c r="X37">
+        <f>1.6*X40</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF37" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG37" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33">
       <c r="B38" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C38">
         <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q38">
+        <v>134</v>
+      </c>
+      <c r="Q38" s="12">
         <v>2.6949999999999998</v>
       </c>
       <c r="R38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20">
+        <v>12</v>
+      </c>
+      <c r="W38" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF38" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG38" s="21">
+        <v>1773108925</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33">
       <c r="B39" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="C39">
         <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E39">
         <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <f>G6-16.97-5.11</f>
         <v>17.050000000000004</v>
       </c>
       <c r="R39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20">
+        <v>12</v>
+      </c>
+      <c r="W39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF39" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG39" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33">
       <c r="B40" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="C40">
         <v>0.78</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q40">
+        <v>143</v>
+      </c>
+      <c r="Q40" s="12">
         <v>1.55</v>
       </c>
       <c r="R40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20">
+        <v>12</v>
+      </c>
+      <c r="W40" t="s">
+        <v>144</v>
+      </c>
+      <c r="X40">
+        <v>0.4</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF40" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG40" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33">
       <c r="B41" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C41">
         <v>23.6</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>23.6</v>
       </c>
       <c r="P41" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <f>(28.6+3.9-(C59+0.25*C58))*-1</f>
         <v>-8.7639999999999993</v>
       </c>
       <c r="R41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20">
+        <v>12</v>
+      </c>
+      <c r="W41" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF41" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG41" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33">
       <c r="B42" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C42">
         <v>2.5499999999999998</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P42" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q42">
+        <v>152</v>
+      </c>
+      <c r="Q42" s="12">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="43" spans="2:20">
+      <c r="W42" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF42" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG42" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33">
       <c r="B43" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C43">
         <v>1.89</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P43" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <f>(2*PI()*Q31)/(2+SQRT(4+(Q31*Q28/Q29)^2*(1+TAN(RADIANS(Q30))^2/Q28^2)))</f>
         <v>6.0508565638230341</v>
       </c>
       <c r="R43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20">
+        <v>113</v>
+      </c>
+      <c r="W43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF43" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG43" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33">
       <c r="B44" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="C44">
         <v>0.4</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P44" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>34</v>
       </c>
       <c r="R44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20">
+        <v>85</v>
+      </c>
+      <c r="W44" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF44" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG44" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33">
       <c r="B45" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="C45">
         <v>0.44</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P45" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <f>1.6/3.7</f>
         <v>0.43243243243243246</v>
       </c>
       <c r="R45" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="S45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20">
+        <v>164</v>
+      </c>
+      <c r="W45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33">
       <c r="B46" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>50.3</v>
       </c>
       <c r="P46" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <f>(TAN(RADIANS(Q44))-(4/Q27)*(50-0)/100*(1-Q45)/(1+Q45))*180/PI()</f>
         <v>28.741582224134536</v>
       </c>
       <c r="R46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33">
       <c r="B47" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="E47">
         <v>94.01</v>
       </c>
       <c r="P47" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <f>G9-5.11*0.5*Q37-0.5*0.5*Q37*(TAN(RADIANS(Q34))-TAN(RADIANS(Q48)))</f>
         <v>70.150594997425443</v>
       </c>
       <c r="R47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20">
+        <v>20</v>
+      </c>
+      <c r="S47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33">
       <c r="P48" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>3</v>
       </c>
       <c r="R48" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="W48">
+        <f>Q45*X35</f>
+        <v>1.124953316953317</v>
       </c>
     </row>
     <row r="49" spans="2:19">
       <c r="B49" s="5" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="G49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P49" t="s">
-        <v>117</v>
+        <v>174</v>
+      </c>
+      <c r="Q49">
+        <f>2/3 *X35*((1+Q45+Q45^2)/(1+Q45))</f>
+        <v>1.960708729312503</v>
       </c>
       <c r="R49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="2:19">
       <c r="B50" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="G50">
         <v>14.41</v>
       </c>
       <c r="H50" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="P50" t="s">
-        <v>119</v>
+        <v>176</v>
+      </c>
+      <c r="Q50">
+        <f>(G10/6 * (1+2*Q45)/(1+Q45)) * TAN(RADIANS(Q44)) + (G6-4.04)+C57</f>
+        <v>39.997477008284811</v>
       </c>
       <c r="R50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="2:19">
       <c r="B51" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="G51">
         <v>5.26</v>
       </c>
       <c r="H51" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="P51" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <f>L30/(G7/2)</f>
-        <v>-1.8655737299913124</v>
-      </c>
-      <c r="R51" t="s">
-        <v>122</v>
+        <v>1.2286298764750945</v>
       </c>
     </row>
     <row r="52" spans="2:19">
       <c r="B52" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="G52">
         <v>4.16</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="P52" t="s">
-        <v>124</v>
-      </c>
-      <c r="R52" t="s">
-        <v>122</v>
+        <v>180</v>
+      </c>
+      <c r="Q52">
+        <f>3.316923/G7 * 2</f>
+        <v>0.25349048528849827</v>
+      </c>
+      <c r="S52" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="2:19">
       <c r="B53" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="G53">
         <v>5.08</v>
       </c>
       <c r="H53" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="P53" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <f>(0.1124+0.1265*RADIANS(Q36)+0.1766*RADIANS(Q36)^2)/(Q51^2) +0.1024/Q51 + 2</f>
-        <v>2.0090361489556861</v>
+        <v>2.2307309109952875</v>
       </c>
     </row>
     <row r="54" spans="2:19">
       <c r="B54" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="G54">
         <f>G51+G50</f>
         <v>19.670000000000002</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="P54" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <f>0.1124/(Q51^2)+0.1024/Q51 + 2</f>
-        <v>1.977406179460125</v>
+        <v>2.1578050668928381</v>
       </c>
     </row>
     <row r="56" spans="2:19">
       <c r="B56" s="5" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="2:19">
       <c r="B57" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="C57">
         <v>3.6576</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="P57" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <f>Q28*Q31</f>
@@ -2170,16 +2848,16 @@
     </row>
     <row r="58" spans="2:19">
       <c r="B58" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C58">
         <v>3.48</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P58" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <f>ATAN(TAN(RADIANS(Q34))/Q28)*180/PI()</f>
@@ -2188,16 +2866,19 @@
     </row>
     <row r="59" spans="2:19">
       <c r="B59" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C59">
         <v>22.866</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
       </c>
       <c r="P59" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>0.4</v>
@@ -2205,20 +2886,20 @@
     </row>
     <row r="60" spans="2:19">
       <c r="B60" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C60">
         <f>959.5*0.0254</f>
         <v>24.371299999999998</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="P60" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="Q60">
         <v>0.36</v>
@@ -2226,20 +2907,20 @@
     </row>
     <row r="61" spans="2:19">
       <c r="B61" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="C61">
         <f>1096.08*0.0254</f>
         <v>27.840431999999996</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="P61" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <f>(Q59+Q60)/2</f>
@@ -2248,20 +2929,20 @@
     </row>
     <row r="62" spans="2:19">
       <c r="B62" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="C62">
         <f>12.73+1.07</f>
         <v>13.8</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="P62" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <f>1.8*Q37*Q38*Q39/L29/G9/C58</f>
@@ -2270,20 +2951,20 @@
     </row>
     <row r="63" spans="2:19">
       <c r="B63" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="C63">
         <f>9.89</f>
         <v>9.89</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="P63" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <f>0.273/(1+Q35)*(Q37*G9/G7*(G7-Q37))/(C58^2*(G7+2.15*Q37))*TAN(Q36)</f>
@@ -2292,7 +2973,7 @@
     </row>
     <row r="64" spans="2:19">
       <c r="P64" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <f>Q61-Q62+Q63</f>
@@ -2301,7 +2982,7 @@
     </row>
     <row r="65" spans="16:17">
       <c r="P65" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <f>2*Q42*Q40^2*Q41/G9/C58/L29</f>
@@ -2315,6 +2996,7 @@
     <hyperlink ref="R3" r:id="rId3" xr:uid="{908D4332-B275-421D-A29B-7AA8DCF36AD7}"/>
     <hyperlink ref="Q15" r:id="rId4" xr:uid="{90A9F631-43D9-43F0-A4EC-70769D87048A}"/>
     <hyperlink ref="C56" r:id="rId5" xr:uid="{BB0CA69B-4893-405A-9F25-3789A2839D3B}"/>
+    <hyperlink ref="AA40" r:id="rId6" xr:uid="{933121B7-F18E-43E5-A2B5-0540DA057B01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2324,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A1F04C-07A7-4DEF-8FF6-EBE61286FABF}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -2337,45 +3019,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>41640</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <f>0.95*'Reference Data'!E23</f>
         <v>22028.6</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <f>B2</f>
@@ -2384,20 +3066,20 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <f>'Reference Data'!E22</f>
         <v>10605</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="J4">
         <f>B3</f>
@@ -2411,7 +3093,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="I5" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="J5">
         <f>B12</f>
@@ -2424,10 +3106,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <f>B4</f>
@@ -2440,23 +3122,23 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <f>'Reference Data'!L17 - 0.5</f>
         <v>23.757999999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J7">
         <f>B21*88</f>
@@ -2469,20 +3151,20 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="B8">
         <f>(B7*B3+B13*B17+B14*B18)/(B3+B13+B14)</f>
         <v>20.910297771349573</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J8">
         <f>B25/B28*(J6-J7)</f>
@@ -2495,7 +3177,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="I9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J9">
         <f>B24/B28*(J6-J7)</f>
@@ -2508,7 +3190,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="I10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J10">
         <f>J3-J4-J6</f>
@@ -2521,393 +3203,393 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="B12">
         <v>3000</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="B13">
         <v>1350</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <v>1650</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="B15">
         <v>0.93400000000000005</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="B16">
         <v>1.1419999999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="B21">
         <f>100-8</f>
         <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="B24">
         <f>'Reference Data'!G50-'Second Part'!B16</f>
         <v>13.268000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="B25">
         <f>'Reference Data'!G51-'Second Part'!B15</f>
         <v>4.3259999999999996</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B28">
         <f>B24+B25</f>
         <v>17.594000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="B33">
         <v>7.5979999999999999</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="B34">
         <v>14.41</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="B35">
         <f>B34/B33</f>
         <v>1.896551724137931</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="B36">
         <f>B16/B35</f>
         <v>0.60214545454545454</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="B37">
         <f>B36-(1.41*0.2)</f>
         <v>0.32014545454545457</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="B38">
         <f>B37/2.15</f>
         <v>0.14890486257928121</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="B39">
         <f>'Reference Data'!C61-'Second Part'!B38-0.2</f>
         <v>27.491527137420714</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="B40">
         <f>'Reference Data'!C60</f>
         <v>24.371299999999998</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="B41">
         <f>(B39+B40)/2</f>
         <v>25.931413568710354</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="B42">
         <f>((B39+B38*0.5)*B37+(B39+B38+0.1*0.5)*(B36-B37))/B36</f>
         <v>27.624263801130862</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="B44">
         <f>'Reference Data'!G51/'Second Part'!B45/'Second Part'!B46</f>
         <v>0.3223157714131647</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="B45">
         <f>2*1.07+4*B49</f>
         <v>9.2200000000000006</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="B46">
         <f>B49</f>
         <v>1.77</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="B48">
         <f>'Reference Data'!C62-'Reference Data'!C63</f>
         <v>3.91</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="B49">
         <f>B48-2*1.07</f>
         <v>1.77</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="B51">
         <f>B15/B46/B44</f>
@@ -2916,7 +3598,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="B52">
         <f>'Reference Data'!L19-0.5*'Second Part'!B45+B51</f>
@@ -2925,7 +3607,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="B53">
         <f>'Reference Data'!L19+0.5*'Second Part'!B45</f>
@@ -2934,7 +3616,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="B54">
         <f>0.5*(B52+B53)</f>
@@ -2943,17 +3625,17 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="B55">
         <f>('Reference Data'!L19-0.5*'Second Part'!B45+'Reference Data'!L19-0.5*'Second Part'!B45+B51)/2</f>
         <v>11.711181749049432</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3094,12 +3776,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3108,14 +3784,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859AA419-5C65-44E8-8BA5-733F0AC56B3C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BE89D2-2570-4215-A736-FA1548AEA643}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201D9B18-7EB1-4BBD-9985-EC6A6FF4E9B6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201D9B18-7EB1-4BBD-9985-EC6A6FF4E9B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49BE89D2-2570-4215-A736-FA1548AEA643}"/>
 </file>